--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-406899.6364232772</v>
+        <v>-409388.3754527935</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.2989701645114</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>171.2198238350533</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>13.80473884603481</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -795,7 +795,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494236</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>202.8259983001614</v>
       </c>
       <c r="V4" t="n">
-        <v>204.7158181704324</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>147.2798921742903</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>334.4146100199736</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>90.08997546904999</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>66.10653835939425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>387.4110857322199</v>
       </c>
       <c r="G8" t="n">
-        <v>282.4605077549095</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.37240945662755</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>146.190546984556</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>130.4114987159084</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892487</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>240.4934767932226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>19.91555826189098</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>250.7811435429985</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>23.4198685252111</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>131.5907017407191</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>250.1323300129509</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>107.0531836110629</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>107.1685137621111</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>65.78783178799263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179425</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1133.32083113111</v>
+        <v>2220.533155287837</v>
       </c>
       <c r="C2" t="n">
-        <v>764.3583141906979</v>
+        <v>1851.570638347425</v>
       </c>
       <c r="D2" t="n">
-        <v>406.0926155839475</v>
+        <v>1493.304939740674</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>1107.51668714243</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>696.5307823528226</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>281.4583321978191</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3311.661640956609</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3311.661640956609</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2980.598753613038</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2980.598753613038</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2607.132995351958</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2607.132995351958</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,7 +4422,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4437,22 +4437,22 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.4548862703364</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>417.6040489720644</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="V4" t="n">
-        <v>714.1033511005761</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="W4" t="n">
-        <v>714.1033511005761</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="X4" t="n">
-        <v>714.1033511005761</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="Y4" t="n">
-        <v>714.1033511005761</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1136.824033225875</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2970.860506140573</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2639.797618797003</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2287.028963526888</v>
       </c>
       <c r="X5" t="n">
-        <v>1987.713327533092</v>
+        <v>1913.563205265808</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1523.423873289997</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>450.1356741135887</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C7" t="n">
-        <v>281.1994911856818</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>281.1994911856818</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>133.2863976032887</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4756,19 +4756,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>631.7841389438285</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.7841389438285</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.660964416652</v>
+        <v>1956.54334596639</v>
       </c>
       <c r="D8" t="n">
-        <v>1060.395265809902</v>
+        <v>1598.27764735964</v>
       </c>
       <c r="E8" t="n">
-        <v>1060.395265809902</v>
+        <v>1212.489394761395</v>
       </c>
       <c r="F8" t="n">
-        <v>649.4093610202945</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>2325.505862906802</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250.3382603461631</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="C10" t="n">
-        <v>250.3382603461631</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D10" t="n">
-        <v>100.2216209338274</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>78.33486996962284</v>
@@ -4966,46 +4966,46 @@
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877106</v>
+        <v>491.70344522622</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877106</v>
+        <v>491.70344522622</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877106</v>
+        <v>491.70344522622</v>
       </c>
       <c r="W10" t="n">
-        <v>699.1203903877106</v>
+        <v>491.70344522622</v>
       </c>
       <c r="X10" t="n">
-        <v>471.1308394896932</v>
+        <v>491.70344522622</v>
       </c>
       <c r="Y10" t="n">
-        <v>250.3382603461631</v>
+        <v>491.70344522622</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622216</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343147</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219789</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395858</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>449.3439841395858</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176856</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970969</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934009</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035991</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892461</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1257.824365564879</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1029.834814666861</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>809.0422355233313</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>549.6145409888043</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1724.146794103439</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1469.462305897552</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1180.045135860591</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>952.0555849625741</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>731.263005819044</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.997479084462</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2027.396014107403</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1738.320787451601</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1483.636299245714</v>
+        <v>1435.726934649706</v>
       </c>
       <c r="W25" t="n">
-        <v>1194.219129208753</v>
+        <v>1146.309764612745</v>
       </c>
       <c r="X25" t="n">
-        <v>966.2295783107356</v>
+        <v>918.3202137147275</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
         <v>402.7245934908939</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2271.666355830531</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2052.064890853472</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.0469309466976</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>190.1132312935854</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-8.629657607716254e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.11263957636044</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23470,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>46.02952154336839</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>61.35027805667454</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.40333084624567</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>263.1031298113799</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>49.43558426092548</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>2.005313310877057</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>118.6564717779743</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>73.85777223953347</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350417</v>
+        <v>251542.9259350415</v>
       </c>
       <c r="C2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
-      <c r="D2" t="n">
-        <v>287364.6194524992</v>
-      </c>
       <c r="E2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="L2" t="n">
         <v>282501.3098915023</v>
-      </c>
-      <c r="L2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.339677442988552e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35180.04910159853</v>
+        <v>35180.04910159835</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,13 +26430,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.69604186734</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14826.69604186728</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26448,16 +26448,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
+        <v>14826.69604186733</v>
+      </c>
+      <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="N4" t="n">
-        <v>14826.69604186742</v>
-      </c>
       <c r="O4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496084</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496082</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220315.809455543</v>
+        <v>-1220571.678694953</v>
       </c>
       <c r="C6" t="n">
-        <v>85833.93478705319</v>
+        <v>85833.93478705309</v>
       </c>
       <c r="D6" t="n">
-        <v>85833.93478705354</v>
+        <v>85833.93478705338</v>
       </c>
       <c r="E6" t="n">
-        <v>-158860.3777816275</v>
+        <v>-158895.1157070636</v>
       </c>
       <c r="F6" t="n">
-        <v>166552.0840257278</v>
+        <v>166517.3461002919</v>
       </c>
       <c r="G6" t="n">
-        <v>166552.0840257277</v>
+        <v>166517.3461002919</v>
       </c>
       <c r="H6" t="n">
-        <v>166552.0840257277</v>
+        <v>166517.3461002922</v>
       </c>
       <c r="I6" t="n">
-        <v>166552.0840257278</v>
+        <v>166517.3461002919</v>
       </c>
       <c r="J6" t="n">
-        <v>-50979.1183715498</v>
+        <v>-51013.8562969852</v>
       </c>
       <c r="K6" t="n">
-        <v>166552.0840257278</v>
+        <v>166517.3461002919</v>
       </c>
       <c r="L6" t="n">
-        <v>166552.0840257277</v>
+        <v>166517.3461002919</v>
       </c>
       <c r="M6" t="n">
-        <v>81497.05609021588</v>
+        <v>81462.31816478002</v>
       </c>
       <c r="N6" t="n">
-        <v>166552.0840257277</v>
+        <v>166517.3461002919</v>
       </c>
       <c r="O6" t="n">
-        <v>141955.2302999914</v>
+        <v>141955.2302999911</v>
       </c>
       <c r="P6" t="n">
-        <v>161382.9482936231</v>
+        <v>161382.9482936232</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123.3879405522716</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>123.3879405522672</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>83.38583990545146</v>
       </c>
       <c r="V4" t="n">
-        <v>47.42182515339564</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>103.7152797846117</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>35.31649065849541</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>89.74200471288731</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>79.314509663537</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27828,7 +27828,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>19.46496000949156</v>
       </c>
       <c r="G8" t="n">
-        <v>128.461217898544</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>113.0615531899416</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>73.35840229161317</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28810,13 +28810,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.674596803735689e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8708611242914</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286436</v>
@@ -34869,13 +34869,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
